--- a/data/new_data/xlsx/subway_data/coding_terminal.xlsx
+++ b/data/new_data/xlsx/subway_data/coding_terminal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git\hot-dry-noodles\data\new_data\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git\hot-dry-noodles\data\new_data\xlsx\subway_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35A9A77-F3EF-4254-99F3-132D4C8BB46B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F067F-075B-4C40-BBB9-A0E79651BAC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>汉口北</t>
   </si>
@@ -614,6 +614,12 @@
   </si>
   <si>
     <t>百步亭花园路</t>
+  </si>
+  <si>
+    <t>terminalcode</t>
+  </si>
+  <si>
+    <t>terminalname</t>
   </si>
 </sst>
 </file>
@@ -1454,1595 +1460,1603 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B198"/>
+  <dimension ref="A1:B199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="E198" sqref="E198"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199">
         <v>197</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>197</v>
       </c>
     </row>

--- a/data/new_data/xlsx/subway_data/coding_terminal.xlsx
+++ b/data/new_data/xlsx/subway_data/coding_terminal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git\hot-dry-noodles\data\new_data\xlsx\subway_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git\hot-dry-noodles\docs\data\new_data\xlsx\subway_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F067F-075B-4C40-BBB9-A0E79651BAC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DED3F4-2982-4515-8E03-E9B82F118A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>61</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>62</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>63</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>66</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>68</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>69</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>70</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>71</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>72</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>73</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>74</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>76</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>77</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>78</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>79</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>80</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>81</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>82</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>83</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>84</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>85</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>86</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>87</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>88</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>89</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>90</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>91</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>92</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>93</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>94</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>95</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>96</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>97</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>98</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>99</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>100</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>101</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>102</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>103</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>104</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>105</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>106</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>107</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>108</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>109</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>110</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>111</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>112</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>113</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>114</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>115</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>116</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>117</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>118</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>119</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>121</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>122</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>123</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>124</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>125</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>126</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>127</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>128</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>129</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>130</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>131</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>132</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>133</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>134</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>135</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>136</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>137</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>138</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>139</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>140</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>141</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>142</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>143</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>144</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>145</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>146</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>147</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>148</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>149</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>150</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>151</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>152</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>153</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>154</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>155</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>156</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>157</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>158</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>159</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>160</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>161</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>162</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>163</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>164</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>165</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>166</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>167</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>168</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>169</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>170</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>171</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>172</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>173</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>174</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>175</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>176</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>177</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>178</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>179</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>180</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>181</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>182</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>183</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>184</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>185</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>186</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>187</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>188</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>189</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>190</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>191</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>192</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>193</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>194</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>195</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>196</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>197</v>
